--- a/biology/Zoologie/Heterobrissus/Heterobrissus.xlsx
+++ b/biology/Zoologie/Heterobrissus/Heterobrissus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterobrissus est un genre d'oursins de l'ordre des Spatangoida.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Heterobrissus a été créé en 1878 par les paléontologues italiens Angelo Manzoni (d) (1842-1895) et Giuseppe Mazzetti (d) (1818-1896)[2].
-ITIS      (15 octobre 2013)[3] ne reconnait pas ce genre ; NCBI  (15 octobre 2013)[4] n'y reconnait que l'espèce Heterobrissus niasicus, et classe les Heterobrissus dans la famille des Cidaridae, c'est-à-dire dans un ordre (les Cidaroida) très éloigné des Spatangoida. Cependant, les apomorphies structurelles font généralement accorder plus de crédit à WoRMS parmi les spécialistes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Heterobrissus a été créé en 1878 par les paléontologues italiens Angelo Manzoni (d) (1842-1895) et Giuseppe Mazzetti (d) (1818-1896).
+ITIS      (15 octobre 2013) ne reconnait pas ce genre ; NCBI  (15 octobre 2013) n'y reconnait que l'espèce Heterobrissus niasicus, et classe les Heterobrissus dans la famille des Cidaridae, c'est-à-dire dans un ordre (les Cidaroida) très éloigné des Spatangoida. Cependant, les apomorphies structurelles font généralement accorder plus de crédit à WoRMS parmi les spécialistes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins d'eaux profondes, qui se nourrissent en filtrant la vase. On sait encore peu de choses sur leur biologie.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 avril 2022)[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 avril 2022) : 
 Heterobrissus erinaceus (Baker &amp; Rowe, 1990)
 Heterobrissus gigas (Baker &amp; Rowe, 1990)
 Heterobrissus hemingi (Anderson, 1902)
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(it) A. Manzoni et G. Mazzetti, « Echinodermi Nuovi della Molassa Miocenica di Montese nella Provincia di Modena », Atti della Società toscana di scienze naturali, residente in Pisa, Pise, Inconnu, vol. 3,‎ 1878, p. 350-355 (ISSN 0394-7165, OCLC 17469445, lire en ligne)</t>
         </is>
